--- a/Datas/Zwischentabellen/ZwischenTabelle_Division_Ships.xlsx
+++ b/Datas/Zwischentabellen/ZwischenTabelle_Division_Ships.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Division_ID</t>
   </si>
@@ -33,6 +33,51 @@
   </si>
   <si>
     <t>Activity</t>
+  </si>
+  <si>
+    <t>Fuso</t>
+  </si>
+  <si>
+    <t>Yamashiro</t>
+  </si>
+  <si>
+    <t>Mogami</t>
+  </si>
+  <si>
+    <t>Ashigara</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Louiseville</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Boise</t>
   </si>
 </sst>
 </file>
@@ -415,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -444,6 +489,126 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/Zwischentabellen/ZwischenTabelle_Division_Ships.xlsx
+++ b/Datas/Zwischentabellen/ZwischenTabelle_Division_Ships.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Division_ID</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>Boise</t>
+  </si>
+  <si>
+    <t>Ship_Class</t>
+  </si>
+  <si>
+    <t>Myoko</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -460,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C1" sqref="C1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,7 +496,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,135 +504,186 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
